--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1162F43A-E9EF-4E97-8540-8190BBA439F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839CD9EB-92F2-4146-9046-C39DD00CE42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>CHỈ HUY ĐƠN VỊ QUẢN LÝ PT</t>
   </si>
   <si>
-    <t>Tên phương tiện: ……...…………….</t>
-  </si>
-  <si>
     <t>……</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Phòng Đào tạo.</t>
+  </si>
+  <si>
+    <t>Tên phương tiện: ……...………….</t>
   </si>
 </sst>
 </file>
@@ -439,65 +439,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,7 +888,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -911,62 +910,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="15.75">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -984,264 +983,264 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="21" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="6" t="s">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="J13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3" t="str">
         <f>M12</f>
         <v>năm 2024</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="A18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -1258,39 +1257,39 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" s="10" customFormat="1" ht="15.75">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:13" s="9" customFormat="1" ht="15.75">
+      <c r="A20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="18" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" spans="1:13" s="12" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="18.75">
       <c r="A22" s="3"/>
@@ -1328,65 +1327,65 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-    </row>
-    <row r="26" spans="1:13" s="10" customFormat="1" ht="15.75">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="19" t="s">
+      <c r="F25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1453,27 +1452,27 @@
     <row r="32" spans="1:13" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="C32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1483,19 +1482,19 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="A35" s="3"/>
@@ -1528,7 +1527,22 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:M11"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="A8:M8"/>
@@ -1538,22 +1552,6 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="A16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839CD9EB-92F2-4146-9046-C39DD00CE42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786034DC-8EA0-42D5-8EF8-EE680BB6F017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -466,10 +466,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,16 +493,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,9 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FC8AD-A681-4BBB-A349-157E28EC377A}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -911,12 +906,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
@@ -930,42 +925,42 @@
       <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -983,53 +978,53 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1059,32 +1054,32 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -1097,10 +1092,10 @@
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1128,10 +1123,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1175,72 +1170,72 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -1265,16 +1260,16 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
@@ -1337,23 +1332,23 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
@@ -1375,17 +1370,17 @@
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1452,17 +1447,17 @@
     <row r="32" spans="1:13" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
@@ -1527,22 +1522,7 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:M11"/>
+  <mergeCells count="23">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="A8:M8"/>
@@ -1552,6 +1532,20 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786034DC-8EA0-42D5-8EF8-EE680BB6F017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C7ED0-8CC5-4ABE-AC5C-18616DE204BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -466,16 +466,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -490,10 +485,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,7 +882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FC8AD-A681-4BBB-A349-157E28EC377A}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -906,61 +906,61 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="23" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -978,53 +978,53 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1034,13 +1034,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1065,21 +1065,21 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -1092,10 +1092,10 @@
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,10 +1123,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1170,72 +1170,72 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -1253,23 +1253,23 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="15.75">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
@@ -1332,55 +1332,55 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1447,17 +1447,17 @@
     <row r="32" spans="1:13" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
@@ -1522,30 +1522,29 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:M25"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="E4:M4"/>
-    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C7ED0-8CC5-4ABE-AC5C-18616DE204BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D597DB5-D905-45C1-9A66-17E771141128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,10 +467,17 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -485,13 +492,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,9 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FC8AD-A681-4BBB-A349-157E28EC377A}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -906,61 +905,61 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="22" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -978,53 +977,53 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1065,21 +1064,21 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -1092,10 +1091,10 @@
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,10 +1122,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1170,72 +1169,72 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -1253,23 +1252,23 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="15.75">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
@@ -1332,55 +1331,55 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1447,17 +1446,17 @@
     <row r="32" spans="1:13" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
@@ -1522,17 +1521,7 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="C27:K27"/>
+  <mergeCells count="21">
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="C26:K26"/>
     <mergeCell ref="A25:D25"/>
@@ -1545,6 +1534,15 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A18:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D597DB5-D905-45C1-9A66-17E771141128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BF555-271F-492C-B76E-415CE77C9B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -468,13 +468,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -491,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -905,12 +905,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
@@ -924,23 +924,23 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="23" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -949,17 +949,17 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -977,53 +977,53 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1064,21 +1064,21 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -1091,10 +1091,10 @@
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1122,10 +1122,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,72 +1169,72 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -1259,16 +1259,16 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
@@ -1331,23 +1331,23 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
@@ -1369,17 +1369,17 @@
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1446,17 +1446,17 @@
     <row r="32" spans="1:13" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
@@ -1521,7 +1521,10 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="19">
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A18:M18"/>
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="C26:K26"/>
     <mergeCell ref="A25:D25"/>
@@ -1538,11 +1541,6 @@
     <mergeCell ref="F20:M20"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A17:M17"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A18:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BF555-271F-492C-B76E-415CE77C9B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9454FA7E-7FC4-45C3-A232-915B33F3BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -243,12 +243,6 @@
     <t>Chỉ huy xe: Họ tên:……………...…… C.bậc:…. C.vụ:……….…...…..</t>
   </si>
   <si>
-    <t>Địa điểm đón xe: ………………………………..………….……………</t>
-  </si>
-  <si>
-    <t>Nơi đến: ……………………………………….…………….………….</t>
-  </si>
-  <si>
     <t>Hà Nội, ngày……tháng……năm 2024</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t>Tên phương tiện: ……...………….</t>
+  </si>
+  <si>
+    <t>Địa điểm đón xe: ………………………………..………….…….......</t>
+  </si>
+  <si>
+    <t>Nơi đến: ……………………………………….…………….………</t>
   </si>
 </sst>
 </file>
@@ -471,6 +471,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,9 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -905,23 +905,23 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
@@ -930,17 +930,17 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -949,17 +949,17 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -977,64 +977,64 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1054,7 +1054,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1091,10 +1091,10 @@
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>22</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1">
@@ -1122,10 +1122,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1159,7 +1159,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1169,72 +1169,72 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="A16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="A17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="A18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -1252,12 +1252,12 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="15.75">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="8"/>
       <c r="F20" s="18" t="s">
         <v>11</v>
@@ -1332,14 +1332,14 @@
     </row>
     <row r="25" spans="1:13" ht="18.75">
       <c r="A25" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="3"/>
       <c r="F25" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -1352,17 +1352,17 @@
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
@@ -1447,7 +1447,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -1521,14 +1521,7 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:M25"/>
+  <mergeCells count="17">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="A8:M8"/>
@@ -1537,10 +1530,15 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:M25"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9454FA7E-7FC4-45C3-A232-915B33F3BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A57A5FB-93FE-4055-AC13-6AD1B2528837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -468,16 +468,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -492,7 +486,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,7 +883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FC8AD-A681-4BBB-A349-157E28EC377A}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -905,42 +907,42 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="23" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -949,17 +951,17 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -977,53 +979,53 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1169,72 +1171,72 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -1252,23 +1254,23 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="15.75">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
@@ -1331,55 +1333,55 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1446,17 +1448,17 @@
     <row r="32" spans="1:13" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
@@ -1521,7 +1523,13 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="14">
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:M20"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="A8:M8"/>
@@ -1530,15 +1538,6 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A57A5FB-93FE-4055-AC13-6AD1B2528837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B7CE2F-8BAB-46E8-B171-9E0C66A55831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -468,10 +468,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -486,13 +493,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,7 +885,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:K27"/>
+      <selection activeCell="A8" sqref="A8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -907,42 +908,42 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -951,17 +952,17 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -979,53 +980,53 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1171,21 +1172,21 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
       <c r="A16" s="3" t="s">
@@ -1222,21 +1223,21 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -1254,23 +1255,23 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="15.75">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
@@ -1333,55 +1334,55 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1448,17 +1449,17 @@
     <row r="32" spans="1:13" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
@@ -1523,13 +1524,7 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:M20"/>
+  <mergeCells count="13">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="A8:M8"/>
@@ -1538,6 +1533,11 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B7CE2F-8BAB-46E8-B171-9E0C66A55831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A67D93-4B92-42AA-ACC1-ABA4B969A2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>….…</t>
   </si>
   <si>
-    <t>Chỉ huy xe: Họ tên:……………...…… C.bậc:…. C.vụ:……….…...…..</t>
-  </si>
-  <si>
     <t>Hà Nội, ngày……tháng……năm 2024</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Nơi đến: ……………………………………….…………….………</t>
+  </si>
+  <si>
+    <t>Chỉ huy xe: Họ tên:……………...…… C.bậc:…. C.vụ:……….…...…</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -469,16 +469,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -491,6 +485,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -908,42 +905,42 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -952,17 +949,17 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="E4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -980,64 +977,64 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -1049,7 +1046,7 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1057,7 +1054,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1117,7 +1114,7 @@
         <v>22</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1">
@@ -1154,7 +1151,7 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1162,7 +1159,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1172,25 +1169,25 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="A15" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1207,7 +1204,7 @@
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1223,21 +1220,21 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="7.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -1255,23 +1252,23 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="15.75">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
@@ -1335,14 +1332,14 @@
     </row>
     <row r="25" spans="1:13" ht="18.75">
       <c r="A25" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="3"/>
       <c r="F25" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -1355,34 +1352,34 @@
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1450,7 +1447,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -1524,7 +1521,11 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:M20"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="A8:M8"/>
@@ -1533,11 +1534,6 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A67D93-4B92-42AA-ACC1-ABA4B969A2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360177F1-7DE6-402D-A745-9B43C90EF529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>HỌC VIỆN KHQS</t>
   </si>
@@ -201,9 +201,6 @@
     <t>NGƯỜI DỰ TRÙ</t>
   </si>
   <si>
-    <t>Kính gửi: BAN GIÁM ĐỐC HỌC VIỆN</t>
-  </si>
-  <si>
     <t>PHÒNG, KHOA, BAN,HỆ DỰ TRÙ</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>……</t>
   </si>
   <si>
-    <t>…….</t>
-  </si>
-  <si>
     <t>….…</t>
   </si>
   <si>
@@ -283,6 +277,9 @@
   </si>
   <si>
     <t>Chỉ huy xe: Họ tên:……………...…… C.bậc:…. C.vụ:……….…...…</t>
+  </si>
+  <si>
+    <t>BAN GIÁM ĐỐC HỌC VIỆN</t>
   </si>
 </sst>
 </file>
@@ -439,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -469,10 +466,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,10 +487,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,9 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FC8AD-A681-4BBB-A349-157E28EC377A}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:M8"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -905,12 +899,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
@@ -924,42 +918,42 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="22" t="s">
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="5.25" customHeight="1">
       <c r="A5" s="4"/>
@@ -977,64 +971,64 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="A8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -1046,7 +1040,7 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1054,7 +1048,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1065,7 +1059,7 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1086,35 +1080,33 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1">
@@ -1123,26 +1115,24 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13" s="3" t="str">
         <f>M12</f>
@@ -1151,7 +1141,7 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1159,7 +1149,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1169,25 +1159,25 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A15" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1204,7 +1194,7 @@
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1221,7 +1211,7 @@
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1259,16 +1249,16 @@
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="F20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="10"/>
@@ -1332,14 +1322,14 @@
     </row>
     <row r="25" spans="1:13" ht="18.75">
       <c r="A25" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="3"/>
       <c r="F25" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -1353,7 +1343,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -1369,17 +1359,17 @@
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="C27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1447,7 +1437,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360177F1-7DE6-402D-A745-9B43C90EF529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F193BF-F8BE-4FB3-AF63-A93336B9B908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>HỌC VIỆN KHQS</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>Chỉ huy xe: Họ tên:……………...…… C.bậc:…. C.vụ:……….…...…</t>
-  </si>
-  <si>
-    <t>BAN GIÁM ĐỐC HỌC VIỆN</t>
   </si>
 </sst>
 </file>
@@ -1003,9 +1000,7 @@
       <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\quanlyvantai-main\vantai-gateway-main\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F193BF-F8BE-4FB3-AF63-A93336B9B908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>HVKHQS</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C88B0D85-43D9-4A41-A26B-D04AEB241F76}">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A10E06F8-567E-424F-87D4-02852CE99145}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{75B6EC33-5246-45A1-811A-0C731BCE16AE}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{5B6EADB5-F96A-43AD-BFEC-3EA8E232E834}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{10EBADF3-5482-4960-A93F-41C65AB27490}">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{9EC90B19-ACB5-43D4-ADBA-E8D9F1899988}">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{A91EB64E-61A0-4201-94A9-62BFD66311CF}">
+    <comment ref="F25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{78436B62-7008-4FD7-81E9-B816EC1D8BED}">
+    <comment ref="C27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{8A95AE7B-5998-433C-95CE-45BD538D95FB}">
+    <comment ref="C32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22">
     <font>
       <sz val="10"/>
@@ -521,7 +520,7 @@
         <xdr:cNvPr id="10106" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749D7FC7-DFAD-C43D-9AF1-AB5E95A3655B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749D7FC7-DFAD-C43D-9AF1-AB5E95A3655B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -575,7 +574,7 @@
         <xdr:cNvPr id="10107" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2163BCC-6786-BB74-767D-C44461EBDE69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2163BCC-6786-BB74-767D-C44461EBDE69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -871,10 +870,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FC8AD-A681-4BBB-A349-157E28EC377A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1323,16 +1324,16 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
@@ -1506,7 +1507,7 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="C27:K27"/>
     <mergeCell ref="C26:K26"/>
     <mergeCell ref="A20:D20"/>
@@ -1519,6 +1520,7 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
+    <mergeCell ref="F25:M25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>

--- a/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
+++ b/addons/fleet_trip/static/src/template/MY_TEMPLATE.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\quanlyvantai-main\vantai-gateway-main\addons\fleet_trip\static\src\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\vantai-gateway\addons\fleet_trip\static\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F193BF-F8BE-4FB3-AF63-A93336B9B908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{AE80BFCB-E5C5-467A-BBF7-7BAB7D7FE7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HVKHQS</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C88B0D85-43D9-4A41-A26B-D04AEB241F76}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A10E06F8-567E-424F-87D4-02852CE99145}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{75B6EC33-5246-45A1-811A-0C731BCE16AE}">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{5B6EADB5-F96A-43AD-BFEC-3EA8E232E834}">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{10EBADF3-5482-4960-A93F-41C65AB27490}">
       <text>
         <r>
           <rPr>
@@ -107,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{9EC90B19-ACB5-43D4-ADBA-E8D9F1899988}">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" shapeId="0">
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{A91EB64E-61A0-4201-94A9-62BFD66311CF}">
       <text>
         <r>
           <rPr>
@@ -135,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{78436B62-7008-4FD7-81E9-B816EC1D8BED}">
       <text>
         <r>
           <rPr>
@@ -149,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{8A95AE7B-5998-433C-95CE-45BD538D95FB}">
       <text>
         <r>
           <rPr>
@@ -281,7 +282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="10"/>
@@ -520,7 +521,7 @@
         <xdr:cNvPr id="10106" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749D7FC7-DFAD-C43D-9AF1-AB5E95A3655B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749D7FC7-DFAD-C43D-9AF1-AB5E95A3655B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -574,7 +575,7 @@
         <xdr:cNvPr id="10107" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2163BCC-6786-BB74-767D-C44461EBDE69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2163BCC-6786-BB74-767D-C44461EBDE69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -870,12 +871,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FC8AD-A681-4BBB-A349-157E28EC377A}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:M25"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1324,16 +1323,16 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A26" s="8"/>
@@ -1507,7 +1506,7 @@
       <c r="M36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="C27:K27"/>
     <mergeCell ref="C26:K26"/>
     <mergeCell ref="A20:D20"/>
@@ -1520,7 +1519,6 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:M3"/>
-    <mergeCell ref="F25:M25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0.5" footer="0.5"/>
